--- a/Docs/Maquina 1 - Tablas de Datos Lab 4.xlsx
+++ b/Docs/Maquina 1 - Tablas de Datos Lab 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37e2a68dcb2a11c0/Desktop/EDA/Reto1-G01/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\CAMI\EDA\Reto1-G01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BACA22EA-5966-4423-9004-F5CD64149A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EED33C-8F91-4F90-A694-F8AF237781F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,12 @@
     <sheet name="Graf Insertion Sort" sheetId="8" r:id="rId4"/>
     <sheet name="Graf Selection Sort" sheetId="10" r:id="rId5"/>
     <sheet name="Graf Shell Sort" sheetId="9" r:id="rId6"/>
+    <sheet name="Graf Quick Sort" sheetId="13" r:id="rId7"/>
+    <sheet name="Graf Merge Sort" sheetId="12" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <r>
       <t>T</t>
@@ -78,6 +83,12 @@
       </rPr>
       <t>amaño de la muestra (ARRAYLIST)</t>
     </r>
+  </si>
+  <si>
+    <t>Quick Sort [ms]</t>
+  </si>
+  <si>
+    <t>Merge Sort [ms]</t>
   </si>
 </sst>
 </file>
@@ -163,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,11 +248,116 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -328,49 +444,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -431,6 +504,49 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -1052,6 +1168,264 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EA19-4908-9336-CD0E2C6ECFDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab4'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab4'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab4'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D3B2-4723-A15A-F64E780B9BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab4'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab4'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab4'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D3B2-4723-A15A-F64E780B9BBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3743,6 +4117,1498 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1191-4146-AA68-44FCE3413D1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparación de rendimiento para Quick Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30724686335834317"/>
+          <c:y val="1.2117376349489305E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Datos Lab4-5'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Datos Lab4-5'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Datos Lab4-5'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E38-4238-9A85-45B109AC70EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Datos Lab4-5'!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Datos Lab4-5'!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Datos Lab4-5'!$E$15:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E38-4238-9A85-45B109AC70EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparación de rendimiento para Merge Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30724686335834317"/>
+          <c:y val="1.2117376349489305E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Datos Lab4-5'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Datos Lab4-5'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Datos Lab4-5'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-944F-40BF-A245-6C1AFADAEE37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Datos Lab4-5'!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Datos Lab4-5'!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Datos Lab4-5'!$F$15:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-944F-40BF-A245-6C1AFADAEE37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4268,6 +6134,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6333,6 +8279,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6896,7 +9874,29 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0"/>
+    <sheetView zoomScale="78" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{096EB255-F2C1-426D-8152-1F77E1B1739A}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9EDF2DAA-D6F8-417C-BFFC-E77C9EABD687}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6907,7 +9907,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6071644"/>
+    <xdr:ext cx="9290137" cy="6067295"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6940,7 +9940,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6071644"/>
+    <xdr:ext cx="9294395" cy="6075947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7006,7 +10006,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6071644"/>
+    <xdr:ext cx="9290137" cy="6067295"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7039,7 +10039,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299677" cy="6075516"/>
+    <xdr:ext cx="9305192" cy="6069135"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7068,27 +10068,352 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600C5C42-336E-43B2-AA91-A5D94F35CB8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8559C3CF-BD85-4A1A-B1A8-E49891F283D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datos Lab4-5"/>
+      <sheetName val="Graf ARRAYLIST"/>
+      <sheetName val="Graf LINKED_LIST"/>
+      <sheetName val="Graf Insertion Sort"/>
+      <sheetName val="Graf Selection Sort"/>
+      <sheetName val="Graf Shell Sort"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="E1" t="str">
+            <v>Quick Sort [ms]</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Merge Sort [ms]</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1000</v>
+          </cell>
+          <cell r="E2">
+            <v>20</v>
+          </cell>
+          <cell r="F2">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2000</v>
+          </cell>
+          <cell r="E3">
+            <v>40</v>
+          </cell>
+          <cell r="F3">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>4000</v>
+          </cell>
+          <cell r="E4">
+            <v>60</v>
+          </cell>
+          <cell r="F4">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>8000</v>
+          </cell>
+          <cell r="E5">
+            <v>80</v>
+          </cell>
+          <cell r="F5">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>16000</v>
+          </cell>
+          <cell r="E6">
+            <v>100</v>
+          </cell>
+          <cell r="F6">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>32000</v>
+          </cell>
+          <cell r="E7">
+            <v>120</v>
+          </cell>
+          <cell r="F7">
+            <v>210</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>64000</v>
+          </cell>
+          <cell r="E8">
+            <v>140</v>
+          </cell>
+          <cell r="F8">
+            <v>240</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>128000</v>
+          </cell>
+          <cell r="E9">
+            <v>160</v>
+          </cell>
+          <cell r="F9">
+            <v>270</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>256000</v>
+          </cell>
+          <cell r="E10">
+            <v>180</v>
+          </cell>
+          <cell r="F10">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>512000</v>
+          </cell>
+          <cell r="E11">
+            <v>200</v>
+          </cell>
+          <cell r="F11">
+            <v>330</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14" t="str">
+            <v>Quick Sort [ms]</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>Merge Sort [ms]</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1000</v>
+          </cell>
+          <cell r="E15">
+            <v>30</v>
+          </cell>
+          <cell r="F15">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>2000</v>
+          </cell>
+          <cell r="E16">
+            <v>60</v>
+          </cell>
+          <cell r="F16">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>4000</v>
+          </cell>
+          <cell r="E17">
+            <v>90</v>
+          </cell>
+          <cell r="F17">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>8000</v>
+          </cell>
+          <cell r="E18">
+            <v>120</v>
+          </cell>
+          <cell r="F18">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>16000</v>
+          </cell>
+          <cell r="E19">
+            <v>150</v>
+          </cell>
+          <cell r="F19">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>32000</v>
+          </cell>
+          <cell r="E20">
+            <v>180</v>
+          </cell>
+          <cell r="F20">
+            <v>170</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>64000</v>
+          </cell>
+          <cell r="E21">
+            <v>210</v>
+          </cell>
+          <cell r="F21">
+            <v>190</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>128000</v>
+          </cell>
+          <cell r="E22">
+            <v>240</v>
+          </cell>
+          <cell r="F22">
+            <v>210</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>256000</v>
+          </cell>
+          <cell r="E23">
+            <v>270</v>
+          </cell>
+          <cell r="F23">
+            <v>230</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>512000</v>
+          </cell>
+          <cell r="E24">
+            <v>300</v>
+          </cell>
+          <cell r="F24">
+            <v>250</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D11" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F11" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{9330A1D0-5BFB-4AF1-A9DA-FA1325F4D7CE}" name="Quick Sort [ms]" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{7A29B3B0-27D3-470C-9562-E4A3931E6F9F}" name="Merge Sort [ms]" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A14:D24" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:F24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A14:F24" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{312E8704-8231-410C-8BE3-1789AE129E37}" name="Quick Sort [ms]" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1AF2196F-A9E6-4A54-A981-EA734D7C884C}" name="Merge Sort [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7391,21 +10716,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" ht="45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7418,8 +10745,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -7432,8 +10765,14 @@
       <c r="D2" s="13">
         <v>109.375</v>
       </c>
+      <c r="E2" s="25">
+        <v>30</v>
+      </c>
+      <c r="F2" s="25">
+        <v>70</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -7446,8 +10785,14 @@
       <c r="D3" s="14">
         <v>140.625</v>
       </c>
+      <c r="E3" s="25">
+        <v>60</v>
+      </c>
+      <c r="F3" s="25">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -7460,8 +10805,14 @@
       <c r="D4" s="15">
         <v>375</v>
       </c>
+      <c r="E4" s="25">
+        <v>90</v>
+      </c>
+      <c r="F4" s="25">
+        <v>110</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -7474,8 +10825,14 @@
       <c r="D5" s="14">
         <v>593.75</v>
       </c>
+      <c r="E5" s="25">
+        <v>120</v>
+      </c>
+      <c r="F5" s="25">
+        <v>130</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -7488,8 +10845,14 @@
       <c r="D6" s="15">
         <v>1234.375</v>
       </c>
+      <c r="E6" s="25">
+        <v>150</v>
+      </c>
+      <c r="F6" s="25">
+        <v>150</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -7498,8 +10861,14 @@
       <c r="D7" s="14">
         <v>2640.625</v>
       </c>
+      <c r="E7" s="25">
+        <v>180</v>
+      </c>
+      <c r="F7" s="25">
+        <v>170</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -7508,8 +10877,14 @@
       <c r="D8" s="15">
         <v>7781.25</v>
       </c>
+      <c r="E8" s="25">
+        <v>210</v>
+      </c>
+      <c r="F8" s="25">
+        <v>190</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -7518,8 +10893,14 @@
       <c r="D9" s="14">
         <v>14875</v>
       </c>
+      <c r="E9" s="25">
+        <v>240</v>
+      </c>
+      <c r="F9" s="25">
+        <v>210</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -7528,8 +10909,14 @@
       <c r="D10" s="15">
         <v>36953.125</v>
       </c>
+      <c r="E10" s="25">
+        <v>270</v>
+      </c>
+      <c r="F10" s="25">
+        <v>230</v>
+      </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>375942</v>
       </c>
@@ -7538,8 +10925,14 @@
       <c r="D11" s="14">
         <v>65953.125</v>
       </c>
+      <c r="E11" s="25">
+        <v>300</v>
+      </c>
+      <c r="F11" s="25">
+        <v>250</v>
+      </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -7552,8 +10945,14 @@
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E14" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -7566,8 +10965,14 @@
       <c r="D15" s="24">
         <v>2140.625</v>
       </c>
+      <c r="E15" s="27">
+        <v>30</v>
+      </c>
+      <c r="F15" s="27">
+        <v>70</v>
+      </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -7580,8 +10985,14 @@
       <c r="D16" s="19">
         <v>8781.25</v>
       </c>
+      <c r="E16" s="27">
+        <v>60</v>
+      </c>
+      <c r="F16" s="27">
+        <v>90</v>
+      </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -7590,8 +11001,14 @@
       <c r="D17" s="20">
         <v>44734.375</v>
       </c>
+      <c r="E17" s="27">
+        <v>90</v>
+      </c>
+      <c r="F17" s="27">
+        <v>110</v>
+      </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -7600,54 +11017,96 @@
       <c r="D18" s="19">
         <v>212031.25</v>
       </c>
+      <c r="E18" s="27">
+        <v>120</v>
+      </c>
+      <c r="F18" s="27">
+        <v>130</v>
+      </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="21"/>
+      <c r="E19" s="27">
+        <v>150</v>
+      </c>
+      <c r="F19" s="27">
+        <v>150</v>
+      </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="21"/>
+      <c r="E20" s="27">
+        <v>180</v>
+      </c>
+      <c r="F20" s="27">
+        <v>170</v>
+      </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="21"/>
+      <c r="E21" s="27">
+        <v>210</v>
+      </c>
+      <c r="F21" s="27">
+        <v>190</v>
+      </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="21"/>
+      <c r="E22" s="27">
+        <v>240</v>
+      </c>
+      <c r="F22" s="27">
+        <v>210</v>
+      </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="21"/>
+      <c r="E23" s="27">
+        <v>270</v>
+      </c>
+      <c r="F23" s="27">
+        <v>230</v>
+      </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>375942</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="21"/>
+      <c r="E24" s="27">
+        <v>300</v>
+      </c>
+      <c r="F24" s="27">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7659,12 +11118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c10596efcc8303131ba000bf7988b65d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88645b4f568d2e9f6d2a1da3b5a5f323" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -7875,6 +11328,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7885,23 +11344,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21480DE1-6D35-4CDC-8EE6-012EAA9B4D3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7920,6 +11362,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>

--- a/Docs/Maquina 1 - Tablas de Datos Lab 4.xlsx
+++ b/Docs/Maquina 1 - Tablas de Datos Lab 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\CAMI\EDA\Reto1-G01\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatig\OneDrive\Desktop\EDA\Reto1-G01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EED33C-8F91-4F90-A694-F8AF237781F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EB0091-F6D0-43E0-90D1-E7A50AACBB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
       <name val="Dax-Regular"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +152,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,11 +176,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -248,20 +263,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -309,54 +338,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -514,19 +495,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1261,34 +1229,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>359.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>906.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180</c:v>
+                  <c:v>1890.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210</c:v>
+                  <c:v>4546.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>12984.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,34 +1352,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>46.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>203.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>406.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>906.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
+                  <c:v>2015.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>4359.375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>9375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>230</c:v>
+                  <c:v>20218.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>30234.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4536,7 +4498,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Datos Lab4-5'!$E$1</c:f>
+              <c:f>'Datos Lab4'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4615,10 +4577,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Datos Lab4-5'!$A$2:$A$11</c:f>
+              <c:f>'Datos Lab4'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -4642,51 +4604,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Datos Lab4-5'!$E$2:$E$11</c:f>
+              <c:f>'Datos Lab4'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>359.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>906.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>1890.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>4546.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>12984.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,7 +4653,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Datos Lab4-5'!$E$14</c:f>
+              <c:f>'Datos Lab4'!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4782,10 +4732,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Datos Lab4-5'!$A$15:$A$24</c:f>
+              <c:f>'Datos Lab4'!$A$15:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -4797,63 +4747,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Datos Lab4-5'!$E$15:$E$24</c:f>
+              <c:f>'Datos Lab4'!$E$15:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>11187.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>50187.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>208062.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5281,7 +5195,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Datos Lab4-5'!$F$1</c:f>
+              <c:f>'Datos Lab4'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5361,7 +5275,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Datos Lab4-5'!$A$2:$A$11</c:f>
+              <c:f>'Datos Lab4'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5393,46 +5307,46 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Datos Lab4-5'!$F$2:$F$11</c:f>
+              <c:f>'Datos Lab4'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>46.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>203.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>406.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>906.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
+                  <c:v>2015.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>4359.375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>9375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>20218.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>330</c:v>
+                  <c:v>30234.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,7 +5363,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Datos Lab4-5'!$F$14</c:f>
+              <c:f>'Datos Lab4'!$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5529,10 +5443,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Datos Lab4-5'!$A$15:$A$24</c:f>
+              <c:f>'Datos Lab4'!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -5550,57 +5464,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Datos Lab4-5'!$F$15:$F$24</c:f>
+              <c:f>'Datos Lab4'!$F$15:$F$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>343.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>1312.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>5031.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>19765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>84640.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>348890.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9896,7 +9786,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9EDF2DAA-D6F8-417C-BFFC-E77C9EABD687}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9907,7 +9797,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:ext cx="9290137" cy="6071644"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9940,7 +9830,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6075947"/>
+    <xdr:ext cx="9291053" cy="6062579"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10006,7 +9896,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:ext cx="9290137" cy="6071644"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10039,7 +9929,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305192" cy="6069135"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10072,7 +9962,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:ext cx="9290137" cy="6071644"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10105,7 +9995,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:ext cx="9290137" cy="6071644"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10384,6 +10274,11 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10396,24 +10291,24 @@
     <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{9330A1D0-5BFB-4AF1-A9DA-FA1325F4D7CE}" name="Quick Sort [ms]" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7A29B3B0-27D3-470C-9562-E4A3931E6F9F}" name="Merge Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9330A1D0-5BFB-4AF1-A9DA-FA1325F4D7CE}" name="Quick Sort [ms]" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{7A29B3B0-27D3-470C-9562-E4A3931E6F9F}" name="Merge Sort [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:F24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:F24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A14:F24" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{312E8704-8231-410C-8BE3-1789AE129E37}" name="Quick Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{1AF2196F-A9E6-4A54-A981-EA734D7C884C}" name="Merge Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{312E8704-8231-410C-8BE3-1789AE129E37}" name="Quick Sort [ms]" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1AF2196F-A9E6-4A54-A981-EA734D7C884C}" name="Merge Sort [ms]" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10716,23 +10611,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -10745,14 +10640,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -10765,14 +10660,15 @@
       <c r="D2" s="13">
         <v>109.375</v>
       </c>
-      <c r="E2" s="25">
-        <v>30</v>
+      <c r="E2" s="28">
+        <v>31.25</v>
       </c>
-      <c r="F2" s="25">
-        <v>70</v>
+      <c r="F2" s="29">
+        <v>46.88</v>
       </c>
+      <c r="H2" s="29"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -10785,14 +10681,15 @@
       <c r="D3" s="14">
         <v>140.625</v>
       </c>
-      <c r="E3" s="25">
-        <v>60</v>
+      <c r="E3" s="28">
+        <v>93.75</v>
       </c>
-      <c r="F3" s="25">
-        <v>90</v>
+      <c r="F3" s="28">
+        <v>93.75</v>
       </c>
+      <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -10805,14 +10702,15 @@
       <c r="D4" s="15">
         <v>375</v>
       </c>
-      <c r="E4" s="25">
-        <v>90</v>
+      <c r="E4" s="28">
+        <v>187.5</v>
       </c>
-      <c r="F4" s="25">
-        <v>110</v>
+      <c r="F4" s="29">
+        <v>203.125</v>
       </c>
+      <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -10825,14 +10723,15 @@
       <c r="D5" s="14">
         <v>593.75</v>
       </c>
-      <c r="E5" s="25">
-        <v>120</v>
+      <c r="E5" s="28">
+        <v>359.375</v>
       </c>
-      <c r="F5" s="25">
-        <v>130</v>
+      <c r="F5" s="28">
+        <v>406.25</v>
       </c>
+      <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -10845,14 +10744,15 @@
       <c r="D6" s="15">
         <v>1234.375</v>
       </c>
-      <c r="E6" s="25">
-        <v>150</v>
+      <c r="E6" s="28">
+        <v>906.25</v>
       </c>
-      <c r="F6" s="25">
-        <v>150</v>
+      <c r="F6" s="29">
+        <v>906.25</v>
       </c>
+      <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -10861,14 +10761,15 @@
       <c r="D7" s="14">
         <v>2640.625</v>
       </c>
-      <c r="E7" s="25">
-        <v>180</v>
+      <c r="E7" s="28">
+        <v>1890.625</v>
       </c>
-      <c r="F7" s="25">
-        <v>170</v>
+      <c r="F7" s="28">
+        <v>2015.625</v>
       </c>
+      <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -10877,14 +10778,15 @@
       <c r="D8" s="15">
         <v>7781.25</v>
       </c>
-      <c r="E8" s="25">
-        <v>210</v>
+      <c r="E8" s="28">
+        <v>4546.875</v>
       </c>
-      <c r="F8" s="25">
-        <v>190</v>
+      <c r="F8" s="29">
+        <v>4359.375</v>
       </c>
+      <c r="H8" s="29"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -10893,14 +10795,15 @@
       <c r="D9" s="14">
         <v>14875</v>
       </c>
-      <c r="E9" s="25">
-        <v>240</v>
+      <c r="E9" s="28">
+        <v>12984.375</v>
       </c>
-      <c r="F9" s="25">
-        <v>210</v>
+      <c r="F9" s="28">
+        <v>9375</v>
       </c>
+      <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -10909,14 +10812,13 @@
       <c r="D10" s="15">
         <v>36953.125</v>
       </c>
-      <c r="E10" s="25">
-        <v>270</v>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29">
+        <v>20218.75</v>
       </c>
-      <c r="F10" s="25">
-        <v>230</v>
-      </c>
+      <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>375942</v>
       </c>
@@ -10925,14 +10827,13 @@
       <c r="D11" s="14">
         <v>65953.125</v>
       </c>
-      <c r="E11" s="25">
-        <v>300</v>
+      <c r="E11" s="28"/>
+      <c r="F11" s="30">
+        <v>30234.375</v>
       </c>
-      <c r="F11" s="25">
-        <v>250</v>
-      </c>
+      <c r="H11" s="30"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -10945,14 +10846,14 @@
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -10966,13 +10867,14 @@
         <v>2140.625</v>
       </c>
       <c r="E15" s="27">
-        <v>30</v>
+        <v>2250</v>
       </c>
-      <c r="F15" s="27">
-        <v>70</v>
+      <c r="F15" s="31">
+        <v>343.75</v>
       </c>
+      <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -10986,13 +10888,14 @@
         <v>8781.25</v>
       </c>
       <c r="E16" s="27">
-        <v>60</v>
+        <v>11187.5</v>
       </c>
       <c r="F16" s="27">
-        <v>90</v>
+        <v>1312.5</v>
       </c>
+      <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -11002,13 +10905,14 @@
         <v>44734.375</v>
       </c>
       <c r="E17" s="27">
-        <v>90</v>
+        <v>50187.5</v>
       </c>
-      <c r="F17" s="27">
-        <v>110</v>
+      <c r="F17" s="31">
+        <v>5031.25</v>
       </c>
+      <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -11018,95 +10922,78 @@
         <v>212031.25</v>
       </c>
       <c r="E18" s="27">
-        <v>120</v>
+        <v>208062.5</v>
       </c>
       <c r="F18" s="27">
-        <v>130</v>
+        <v>19765</v>
       </c>
+      <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="27">
-        <v>150</v>
+      <c r="E19" s="27"/>
+      <c r="F19" s="31">
+        <v>84640.625</v>
       </c>
-      <c r="F19" s="27">
-        <v>150</v>
-      </c>
+      <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="27">
-        <v>180</v>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27">
+        <v>348890.625</v>
       </c>
-      <c r="F20" s="27">
-        <v>170</v>
-      </c>
+      <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="27">
-        <v>210</v>
-      </c>
-      <c r="F21" s="27">
-        <v>190</v>
-      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="27">
-        <v>240</v>
-      </c>
-      <c r="F22" s="27">
-        <v>210</v>
-      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="27">
-        <v>270</v>
-      </c>
-      <c r="F23" s="27">
-        <v>230</v>
-      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>375942</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="27">
-        <v>300</v>
-      </c>
-      <c r="F24" s="27">
-        <v>250</v>
-      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11118,6 +11005,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c10596efcc8303131ba000bf7988b65d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88645b4f568d2e9f6d2a1da3b5a5f323" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -11328,12 +11221,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11344,6 +11231,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21480DE1-6D35-4CDC-8EE6-012EAA9B4D3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11362,23 +11266,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
